--- a/profiling/benchmark.xlsx
+++ b/profiling/benchmark.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="v0.1" sheetId="1" state="visible" r:id="rId2"/>
@@ -207,8 +207,8 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0%"/>
-    <numFmt numFmtId="168" formatCode="0.00%"/>
+    <numFmt numFmtId="167" formatCode="0.00%"/>
+    <numFmt numFmtId="168" formatCode="0%"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -240,21 +240,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="13"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -272,6 +257,21 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -439,19 +439,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -463,7 +463,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -479,7 +479,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -495,7 +495,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -507,23 +507,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -547,7 +547,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -610,7 +610,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF83CAFF"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -635,7 +635,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart219.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart239.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -675,10 +675,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976206951615479"/>
-          <c:y val="0.112301407172038"/>
-          <c:w val="0.872784372172247"/>
-          <c:h val="0.658919655015887"/>
+          <c:x val="0.0976258916214202"/>
+          <c:y val="0.112311603413837"/>
+          <c:w val="0.872724369211115"/>
+          <c:h val="0.658888687125477"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1211,11 +1211,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="44093111"/>
-        <c:axId val="9295283"/>
+        <c:axId val="45254482"/>
+        <c:axId val="66231847"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44093111"/>
+        <c:axId val="45254482"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="27"/>
@@ -1273,13 +1273,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9295283"/>
+        <c:crossAx val="66231847"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="9295283"/>
+        <c:axId val="66231847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1346,7 +1346,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44093111"/>
+        <c:crossAx val="45254482"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1404,7 +1404,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart220.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart240.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1444,10 +1444,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976739234577101"/>
-          <c:y val="0.112301407172038"/>
-          <c:w val="0.872784372172247"/>
-          <c:h val="0.659101225601453"/>
+          <c:x val="0.0976791227509848"/>
+          <c:y val="0.112311603413837"/>
+          <c:w val="0.872724369211115"/>
+          <c:h val="0.659070274196477"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1991,11 +1991,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="23052122"/>
-        <c:axId val="59810020"/>
+        <c:axId val="747884"/>
+        <c:axId val="42996667"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="23052122"/>
+        <c:axId val="747884"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -2053,13 +2053,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59810020"/>
+        <c:crossAx val="42996667"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59810020"/>
+        <c:axId val="42996667"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2124,7 +2124,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23052122"/>
+        <c:crossAx val="747884"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2181,7 +2181,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart221.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart241.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2714,11 +2714,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="49901611"/>
-        <c:axId val="82228165"/>
+        <c:axId val="81548295"/>
+        <c:axId val="43353370"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49901611"/>
+        <c:axId val="81548295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2774,14 +2774,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82228165"/>
+        <c:crossAx val="43353370"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82228165"/>
+        <c:axId val="43353370"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2846,7 +2846,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49901611"/>
+        <c:crossAx val="81548295"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2893,7 +2893,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart222.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart242.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3570,11 +3570,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="99025500"/>
-        <c:axId val="83208542"/>
+        <c:axId val="72414533"/>
+        <c:axId val="60382338"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99025500"/>
+        <c:axId val="72414533"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3630,14 +3630,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83208542"/>
+        <c:crossAx val="60382338"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83208542"/>
+        <c:axId val="60382338"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3702,7 +3702,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99025500"/>
+        <c:crossAx val="72414533"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3749,7 +3749,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart223.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart243.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3789,10 +3789,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976739234577101"/>
-          <c:y val="0.112301407172038"/>
-          <c:w val="0.872784372172247"/>
-          <c:h val="0.659101225601453"/>
+          <c:x val="0.0976791227509848"/>
+          <c:y val="0.112311603413837"/>
+          <c:w val="0.872724369211115"/>
+          <c:h val="0.659070274196477"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4325,11 +4325,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="84693625"/>
-        <c:axId val="69975408"/>
+        <c:axId val="93758713"/>
+        <c:axId val="87907011"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84693625"/>
+        <c:axId val="93758713"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -4387,13 +4387,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69975408"/>
+        <c:crossAx val="87907011"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69975408"/>
+        <c:axId val="87907011"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4458,7 +4458,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84693625"/>
+        <c:crossAx val="93758713"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4514,7 +4514,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart224.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart244.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4554,10 +4554,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976739234577101"/>
-          <c:y val="0.112301407172038"/>
-          <c:w val="0.872784372172247"/>
-          <c:h val="0.659101225601453"/>
+          <c:x val="0.0976791227509848"/>
+          <c:y val="0.112311603413837"/>
+          <c:w val="0.872724369211115"/>
+          <c:h val="0.659070274196477"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4968,11 +4968,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="36952959"/>
-        <c:axId val="56346314"/>
+        <c:axId val="70898705"/>
+        <c:axId val="88331817"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36952959"/>
+        <c:axId val="70898705"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -5030,13 +5030,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56346314"/>
+        <c:crossAx val="88331817"/>
         <c:crossesAt val="-8"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56346314"/>
+        <c:axId val="88331817"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-8"/>
@@ -5102,7 +5102,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36952959"/>
+        <c:crossAx val="70898705"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5158,7 +5158,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart225.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart245.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5198,10 +5198,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976206951615479"/>
-          <c:y val="0.112301407172038"/>
-          <c:w val="0.872784372172247"/>
-          <c:h val="0.658919655015887"/>
+          <c:x val="0.0976258916214202"/>
+          <c:y val="0.112311603413837"/>
+          <c:w val="0.872724369211115"/>
+          <c:h val="0.658888687125477"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5734,11 +5734,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="48135683"/>
-        <c:axId val="27415852"/>
+        <c:axId val="75201080"/>
+        <c:axId val="46898206"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48135683"/>
+        <c:axId val="75201080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="27"/>
@@ -5796,13 +5796,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27415852"/>
+        <c:crossAx val="46898206"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="27415852"/>
+        <c:axId val="46898206"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -5869,7 +5869,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48135683"/>
+        <c:crossAx val="75201080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -5927,7 +5927,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart226.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart246.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5967,10 +5967,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976739234577101"/>
-          <c:y val="0.112301407172038"/>
-          <c:w val="0.872784372172247"/>
-          <c:h val="0.659101225601453"/>
+          <c:x val="0.0976791227509848"/>
+          <c:y val="0.112311603413837"/>
+          <c:w val="0.872724369211115"/>
+          <c:h val="0.659070274196477"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6514,11 +6514,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="91585908"/>
-        <c:axId val="54528578"/>
+        <c:axId val="38675642"/>
+        <c:axId val="51164188"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91585908"/>
+        <c:axId val="38675642"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -6576,13 +6576,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54528578"/>
+        <c:crossAx val="51164188"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54528578"/>
+        <c:axId val="51164188"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6647,7 +6647,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91585908"/>
+        <c:crossAx val="38675642"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6704,7 +6704,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart227.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart247.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7237,11 +7237,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="43659838"/>
-        <c:axId val="72029384"/>
+        <c:axId val="41682208"/>
+        <c:axId val="27609698"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43659838"/>
+        <c:axId val="41682208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7297,14 +7297,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72029384"/>
+        <c:crossAx val="27609698"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72029384"/>
+        <c:axId val="27609698"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7369,7 +7369,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43659838"/>
+        <c:crossAx val="41682208"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -7416,7 +7416,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart228.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart248.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8093,11 +8093,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="8060964"/>
-        <c:axId val="10593523"/>
+        <c:axId val="21892863"/>
+        <c:axId val="59836936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="8060964"/>
+        <c:axId val="21892863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8153,14 +8153,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10593523"/>
+        <c:crossAx val="59836936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10593523"/>
+        <c:axId val="59836936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8225,7 +8225,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8060964"/>
+        <c:crossAx val="21892863"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -8272,7 +8272,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart229.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart249.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8312,10 +8312,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976739234577101"/>
-          <c:y val="0.112301407172038"/>
-          <c:w val="0.872784372172247"/>
-          <c:h val="0.659101225601453"/>
+          <c:x val="0.0976791227509848"/>
+          <c:y val="0.112311603413837"/>
+          <c:w val="0.872724369211115"/>
+          <c:h val="0.659070274196477"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -8848,11 +8848,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="20487474"/>
-        <c:axId val="46680281"/>
+        <c:axId val="9945843"/>
+        <c:axId val="85503629"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="20487474"/>
+        <c:axId val="9945843"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -8910,13 +8910,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46680281"/>
+        <c:crossAx val="85503629"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46680281"/>
+        <c:axId val="85503629"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8981,7 +8981,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20487474"/>
+        <c:crossAx val="9945843"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9037,7 +9037,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart230.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart250.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9077,10 +9077,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976739234577101"/>
-          <c:y val="0.112301407172038"/>
-          <c:w val="0.872784372172247"/>
-          <c:h val="0.659101225601453"/>
+          <c:x val="0.0976791227509848"/>
+          <c:y val="0.112311603413837"/>
+          <c:w val="0.872724369211115"/>
+          <c:h val="0.659070274196477"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -9491,11 +9491,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="77903726"/>
-        <c:axId val="42423885"/>
+        <c:axId val="9680538"/>
+        <c:axId val="46513199"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77903726"/>
+        <c:axId val="9680538"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -9553,13 +9553,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42423885"/>
+        <c:crossAx val="46513199"/>
         <c:crossesAt val="-8"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42423885"/>
+        <c:axId val="46513199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-8"/>
@@ -9625,7 +9625,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77903726"/>
+        <c:crossAx val="9680538"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9681,7 +9681,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart231.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart251.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9721,10 +9721,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976206951615479"/>
-          <c:y val="0.112301407172038"/>
-          <c:w val="0.872784372172247"/>
-          <c:h val="0.658919655015887"/>
+          <c:x val="0.0976258916214202"/>
+          <c:y val="0.112311603413837"/>
+          <c:w val="0.872724369211115"/>
+          <c:h val="0.658888687125477"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -10257,11 +10257,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="5710376"/>
-        <c:axId val="27960955"/>
+        <c:axId val="79298596"/>
+        <c:axId val="9013419"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="5710376"/>
+        <c:axId val="79298596"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="27"/>
@@ -10319,13 +10319,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27960955"/>
+        <c:crossAx val="9013419"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="27960955"/>
+        <c:axId val="9013419"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -10392,7 +10392,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5710376"/>
+        <c:crossAx val="79298596"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -10450,7 +10450,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart232.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart252.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10490,10 +10490,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976739234577101"/>
-          <c:y val="0.112301407172038"/>
-          <c:w val="0.872784372172247"/>
-          <c:h val="0.659101225601453"/>
+          <c:x val="0.0976791227509848"/>
+          <c:y val="0.112311603413837"/>
+          <c:w val="0.872724369211115"/>
+          <c:h val="0.659070274196477"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -11037,11 +11037,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="73697444"/>
-        <c:axId val="60578955"/>
+        <c:axId val="67812788"/>
+        <c:axId val="13870042"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73697444"/>
+        <c:axId val="67812788"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -11099,13 +11099,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60578955"/>
+        <c:crossAx val="13870042"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60578955"/>
+        <c:axId val="13870042"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11170,7 +11170,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73697444"/>
+        <c:crossAx val="67812788"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11227,7 +11227,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart233.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart253.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11760,11 +11760,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="94948061"/>
-        <c:axId val="25302489"/>
+        <c:axId val="32478139"/>
+        <c:axId val="13354762"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94948061"/>
+        <c:axId val="32478139"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11820,14 +11820,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25302489"/>
+        <c:crossAx val="13354762"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="25302489"/>
+        <c:axId val="13354762"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11892,7 +11892,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94948061"/>
+        <c:crossAx val="32478139"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -11939,7 +11939,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart234.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart254.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12616,11 +12616,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="51146601"/>
-        <c:axId val="45982408"/>
+        <c:axId val="77303628"/>
+        <c:axId val="65617051"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51146601"/>
+        <c:axId val="77303628"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12676,14 +12676,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45982408"/>
+        <c:crossAx val="65617051"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45982408"/>
+        <c:axId val="65617051"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12748,7 +12748,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51146601"/>
+        <c:crossAx val="77303628"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -12795,7 +12795,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart235.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart255.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12835,10 +12835,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976739234577101"/>
-          <c:y val="0.112301407172038"/>
-          <c:w val="0.872784372172247"/>
-          <c:h val="0.659101225601453"/>
+          <c:x val="0.0976791227509848"/>
+          <c:y val="0.112311603413837"/>
+          <c:w val="0.872724369211115"/>
+          <c:h val="0.659070274196477"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -13371,11 +13371,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="51781072"/>
-        <c:axId val="58052438"/>
+        <c:axId val="10467893"/>
+        <c:axId val="52366218"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51781072"/>
+        <c:axId val="10467893"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -13433,13 +13433,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58052438"/>
+        <c:crossAx val="52366218"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58052438"/>
+        <c:axId val="52366218"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13504,7 +13504,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51781072"/>
+        <c:crossAx val="10467893"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13560,7 +13560,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart236.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart256.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -13600,10 +13600,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976739234577101"/>
-          <c:y val="0.112301407172038"/>
-          <c:w val="0.872784372172247"/>
-          <c:h val="0.659101225601453"/>
+          <c:x val="0.0976791227509848"/>
+          <c:y val="0.112311603413837"/>
+          <c:w val="0.872724369211115"/>
+          <c:h val="0.659070274196477"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -14014,11 +14014,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="54974726"/>
-        <c:axId val="37863911"/>
+        <c:axId val="39786891"/>
+        <c:axId val="16588715"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54974726"/>
+        <c:axId val="39786891"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -14076,13 +14076,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37863911"/>
+        <c:crossAx val="16588715"/>
         <c:crossesAt val="-8"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="37863911"/>
+        <c:axId val="16588715"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-8"/>
@@ -14148,7 +14148,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54974726"/>
+        <c:crossAx val="39786891"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14204,7 +14204,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart237.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart257.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -14244,10 +14244,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976206951615479"/>
-          <c:y val="0.112301407172038"/>
-          <c:w val="0.872784372172247"/>
-          <c:h val="0.658919655015887"/>
+          <c:x val="0.0976258916214202"/>
+          <c:y val="0.112311603413837"/>
+          <c:w val="0.872724369211115"/>
+          <c:h val="0.658888687125477"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -14780,11 +14780,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="86434755"/>
-        <c:axId val="79728827"/>
+        <c:axId val="10896989"/>
+        <c:axId val="3506909"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86434755"/>
+        <c:axId val="10896989"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="27"/>
@@ -14842,13 +14842,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79728827"/>
+        <c:crossAx val="3506909"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79728827"/>
+        <c:axId val="3506909"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -14915,7 +14915,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86434755"/>
+        <c:crossAx val="10896989"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -14973,7 +14973,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart238.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart258.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15013,10 +15013,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976739234577101"/>
-          <c:y val="0.112301407172038"/>
-          <c:w val="0.872784372172247"/>
-          <c:h val="0.659101225601453"/>
+          <c:x val="0.0976791227509848"/>
+          <c:y val="0.112311603413837"/>
+          <c:w val="0.872724369211115"/>
+          <c:h val="0.659070274196477"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -15560,11 +15560,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="19032932"/>
-        <c:axId val="42719216"/>
+        <c:axId val="5602152"/>
+        <c:axId val="89079518"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="19032932"/>
+        <c:axId val="5602152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -15622,13 +15622,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42719216"/>
+        <c:crossAx val="89079518"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42719216"/>
+        <c:axId val="89079518"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15693,7 +15693,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19032932"/>
+        <c:crossAx val="5602152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15761,9 +15761,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>418320</xdr:colOff>
+      <xdr:colOff>417960</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -15773,7 +15773,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11697840" y="8942400"/>
-          <a:ext cx="1335960" cy="165600"/>
+          <a:ext cx="1335600" cy="165240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15820,9 +15820,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:colOff>9000</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -15832,7 +15832,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2170800" y="10114560"/>
-          <a:ext cx="1335960" cy="165600"/>
+          <a:ext cx="1335600" cy="165240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15884,9 +15884,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>191520</xdr:colOff>
+      <xdr:colOff>191160</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -15896,7 +15896,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11471040" y="7792920"/>
-          <a:ext cx="1335960" cy="165600"/>
+          <a:ext cx="1335600" cy="165240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15943,9 +15943,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>453960</xdr:colOff>
+      <xdr:colOff>453600</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15954,7 +15954,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="20684160" y="6892560"/>
-        <a:ext cx="6762960" cy="3965040"/>
+        <a:ext cx="6762600" cy="3964680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15973,9 +15973,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>484200</xdr:colOff>
+      <xdr:colOff>483840</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15984,7 +15984,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1459800" y="7109280"/>
-        <a:ext cx="6762960" cy="3965040"/>
+        <a:ext cx="6762600" cy="3964680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16003,9 +16003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>53280</xdr:colOff>
+      <xdr:colOff>52920</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16015,7 +16015,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2214720" y="9106200"/>
-          <a:ext cx="1335960" cy="165600"/>
+          <a:ext cx="1335600" cy="165240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16067,9 +16067,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>793800</xdr:colOff>
+      <xdr:colOff>793440</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16078,7 +16078,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1771560" y="3034440"/>
-        <a:ext cx="6760800" cy="3962880"/>
+        <a:ext cx="6760440" cy="3962520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16097,9 +16097,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>274680</xdr:colOff>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16108,7 +16108,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9378360" y="2711160"/>
-        <a:ext cx="6762960" cy="3965040"/>
+        <a:ext cx="6762600" cy="3964680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16127,9 +16127,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>738720</xdr:colOff>
+      <xdr:colOff>738360</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16138,7 +16138,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10655280" y="7146720"/>
-        <a:ext cx="6762960" cy="3965040"/>
+        <a:ext cx="6762600" cy="3964680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16157,9 +16157,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>186120</xdr:colOff>
+      <xdr:colOff>185760</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16168,7 +16168,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9289800" y="11955240"/>
-        <a:ext cx="6762960" cy="3965040"/>
+        <a:ext cx="6762600" cy="3964680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16187,9 +16187,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>191520</xdr:colOff>
+      <xdr:colOff>191160</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16199,7 +16199,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11471040" y="7792920"/>
-          <a:ext cx="1335960" cy="165600"/>
+          <a:ext cx="1335600" cy="165240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16246,9 +16246,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>453960</xdr:colOff>
+      <xdr:colOff>453600</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16257,7 +16257,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="20684160" y="6892560"/>
-        <a:ext cx="6762960" cy="3965040"/>
+        <a:ext cx="6762600" cy="3964680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16276,9 +16276,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>484200</xdr:colOff>
+      <xdr:colOff>483840</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16287,7 +16287,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1459800" y="7109280"/>
-        <a:ext cx="6762960" cy="3965040"/>
+        <a:ext cx="6762600" cy="3964680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16306,9 +16306,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>53280</xdr:colOff>
+      <xdr:colOff>52920</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16318,7 +16318,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2214720" y="9106200"/>
-          <a:ext cx="1335960" cy="165600"/>
+          <a:ext cx="1335600" cy="165240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16370,9 +16370,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>793800</xdr:colOff>
+      <xdr:colOff>793440</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16381,7 +16381,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1771560" y="3034440"/>
-        <a:ext cx="6760800" cy="3962880"/>
+        <a:ext cx="6760440" cy="3962520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16400,9 +16400,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>274680</xdr:colOff>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16411,7 +16411,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9378360" y="2711160"/>
-        <a:ext cx="6762960" cy="3965040"/>
+        <a:ext cx="6762600" cy="3964680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16430,9 +16430,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>702720</xdr:colOff>
+      <xdr:colOff>702360</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16441,7 +16441,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10619280" y="7146720"/>
-        <a:ext cx="6762960" cy="3965040"/>
+        <a:ext cx="6762600" cy="3964680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16460,9 +16460,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>186120</xdr:colOff>
+      <xdr:colOff>185760</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16471,7 +16471,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9289800" y="11955240"/>
-        <a:ext cx="6762960" cy="3965040"/>
+        <a:ext cx="6762600" cy="3964680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16490,9 +16490,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>191520</xdr:colOff>
+      <xdr:colOff>191160</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16502,7 +16502,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11471040" y="7792920"/>
-          <a:ext cx="1335960" cy="165600"/>
+          <a:ext cx="1335600" cy="165240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16549,9 +16549,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>453960</xdr:colOff>
+      <xdr:colOff>453600</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16560,7 +16560,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="20684160" y="6892560"/>
-        <a:ext cx="6762960" cy="3965040"/>
+        <a:ext cx="6762600" cy="3964680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16579,9 +16579,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>484200</xdr:colOff>
+      <xdr:colOff>483840</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16590,7 +16590,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1459800" y="7109280"/>
-        <a:ext cx="6762960" cy="3965040"/>
+        <a:ext cx="6762600" cy="3964680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16609,9 +16609,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>53280</xdr:colOff>
+      <xdr:colOff>52920</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16621,7 +16621,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2214720" y="9106200"/>
-          <a:ext cx="1335960" cy="165600"/>
+          <a:ext cx="1335600" cy="165240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16673,9 +16673,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>793800</xdr:colOff>
+      <xdr:colOff>793440</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16684,7 +16684,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1771560" y="3034440"/>
-        <a:ext cx="6760800" cy="3962880"/>
+        <a:ext cx="6760440" cy="3962520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16703,9 +16703,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>274680</xdr:colOff>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16714,7 +16714,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9378360" y="2711160"/>
-        <a:ext cx="6762960" cy="3965040"/>
+        <a:ext cx="6762600" cy="3964680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16733,9 +16733,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>438840</xdr:colOff>
+      <xdr:colOff>438480</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16744,7 +16744,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8729640" y="8578080"/>
-        <a:ext cx="6762960" cy="3965040"/>
+        <a:ext cx="6762600" cy="3964680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16763,9 +16763,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>186120</xdr:colOff>
+      <xdr:colOff>185760</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16774,7 +16774,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9289800" y="11955240"/>
-        <a:ext cx="6762960" cy="3965040"/>
+        <a:ext cx="6762600" cy="3964680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16793,9 +16793,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>191520</xdr:colOff>
+      <xdr:colOff>191160</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16805,7 +16805,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11471040" y="7792920"/>
-          <a:ext cx="1335960" cy="165600"/>
+          <a:ext cx="1335600" cy="165240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16852,9 +16852,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>453960</xdr:colOff>
+      <xdr:colOff>453600</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16863,7 +16863,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="20684160" y="6892560"/>
-        <a:ext cx="6762960" cy="3965040"/>
+        <a:ext cx="6762600" cy="3964680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16882,9 +16882,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>484200</xdr:colOff>
+      <xdr:colOff>483840</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16893,7 +16893,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1459800" y="7109280"/>
-        <a:ext cx="6762960" cy="3965040"/>
+        <a:ext cx="6762600" cy="3964680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16912,9 +16912,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>53280</xdr:colOff>
+      <xdr:colOff>52920</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16924,7 +16924,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2214720" y="9106200"/>
-          <a:ext cx="1335960" cy="165600"/>
+          <a:ext cx="1335600" cy="165240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17721,8 +17721,8 @@
   </sheetPr>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17733,8 +17733,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.74"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.99"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
@@ -24910,10 +24910,10 @@
   </sheetPr>
   <dimension ref="A1:AG14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25541,11 +25541,11 @@
         <v>6</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>13.07</v>
+        <v>10.74</v>
       </c>
       <c r="G7" s="27" t="n">
         <f aca="false">ROUND(LOG(F7,2),2)</f>
-        <v>3.71</v>
+        <v>3.42</v>
       </c>
       <c r="H7" s="12" t="n">
         <v>3</v>

--- a/profiling/benchmark.xlsx
+++ b/profiling/benchmark.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="v0.1" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="cpu last_mexp" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="cpu fft 3 gpu" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="29_03_2020" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="02_08_2020" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="48">
   <si>
     <t xml:space="preserve">Mexp</t>
   </si>
@@ -70,7 +71,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">pi_c 2</t>
     </r>
@@ -80,7 +80,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">nd</t>
     </r>
@@ -89,7 +88,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> part + data transfer</t>
     </r>
@@ -212,12 +210,11 @@
     <numFmt numFmtId="168" formatCode="General"/>
     <numFmt numFmtId="169" formatCode="0%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -239,21 +236,18 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -262,11 +256,6 @@
     </font>
     <font>
       <sz val="13"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -637,7 +626,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -715,6 +704,7 @@
             <c:numFmt formatCode="0%" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="9"/>
+              <c:numFmt formatCode="0%" sourceLinked="1"/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
@@ -837,9 +827,6 @@
                 <c:pt idx="10">
                   <c:v>760.1</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -972,9 +959,6 @@
                 <c:pt idx="10">
                   <c:v>341.15</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1107,9 +1091,6 @@
                 <c:pt idx="10">
                   <c:v>341.15</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1242,9 +1223,6 @@
                 <c:pt idx="10">
                   <c:v>6.17</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1377,20 +1355,17 @@
                 <c:pt idx="10">
                   <c:v>1.34</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="74851384"/>
-        <c:axId val="37261349"/>
+        <c:axId val="69181941"/>
+        <c:axId val="14515154"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74851384"/>
+        <c:axId val="69181941"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1446,14 +1421,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37261349"/>
+        <c:crossAx val="14515154"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37261349"/>
+        <c:axId val="14515154"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1518,7 +1493,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74851384"/>
+        <c:crossAx val="69181941"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1558,14 +1533,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1605,10 +1580,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976895229982964"/>
-          <c:y val="0.11233200145296"/>
-          <c:w val="0.872604344122657"/>
-          <c:h val="0.659008354522339"/>
+          <c:x val="0.0976947239525103"/>
+          <c:y val="0.112342203251294"/>
+          <c:w val="0.872544321993292"/>
+          <c:h val="0.658977386250113"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1751,12 +1726,6 @@
                 <c:pt idx="9">
                   <c:v>8.83</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2044,15 +2013,6 @@
                 <c:pt idx="8">
                   <c:v>7.46</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2189,11 +2149,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="87457269"/>
-        <c:axId val="84894075"/>
+        <c:axId val="89108136"/>
+        <c:axId val="64404557"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87457269"/>
+        <c:axId val="89108136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -2251,13 +2211,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84894075"/>
+        <c:crossAx val="64404557"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84894075"/>
+        <c:axId val="64404557"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,7 +2282,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87457269"/>
+        <c:crossAx val="89108136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2336,16 +2296,18 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.332250851788756"/>
-          <c:y val="0.932618961133309"/>
-          <c:w val="0.428951711654155"/>
-          <c:h val="0.0430478612296794"/>
+          <c:x val="0.332215301070117"/>
+          <c:y val="0.932612841703751"/>
+          <c:w val="0.42892130763497"/>
+          <c:h val="0.042960944595822"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2371,14 +2333,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2418,10 +2380,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976895229982964"/>
-          <c:y val="0.11233200145296"/>
-          <c:w val="0.872604344122657"/>
-          <c:h val="0.659008354522339"/>
+          <c:x val="0.0976947239525103"/>
+          <c:y val="0.112342203251294"/>
+          <c:w val="0.872544321993292"/>
+          <c:h val="0.658977386250113"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2567,9 +2529,6 @@
                 <c:pt idx="10">
                   <c:v>9.57</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2860,19 +2819,16 @@
                 <c:pt idx="10">
                   <c:v>8.41</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="48891817"/>
-        <c:axId val="22606108"/>
+        <c:axId val="3910986"/>
+        <c:axId val="61088939"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48891817"/>
+        <c:axId val="3910986"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -2930,13 +2886,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22606108"/>
+        <c:crossAx val="61088939"/>
         <c:crossesAt val="-8"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="22606108"/>
+        <c:axId val="61088939"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-8"/>
@@ -3002,7 +2958,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48891817"/>
+        <c:crossAx val="3910986"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3016,16 +2972,18 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.289821124361158"/>
-          <c:y val="0.90528514347984"/>
-          <c:w val="0.47686738007773"/>
-          <c:h val="0.0430478612296794"/>
+          <c:x val="0.289783314699462"/>
+          <c:y val="0.905276541640178"/>
+          <c:w val="0.4768395272069"/>
+          <c:h val="0.042960944595822"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3051,14 +3009,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3098,10 +3056,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976362862010221"/>
-          <c:y val="0.11233200145296"/>
-          <c:w val="0.872604344122657"/>
-          <c:h val="0.658735924446059"/>
+          <c:x val="0.0975882446893468"/>
+          <c:y val="0.112342203251294"/>
+          <c:w val="0.872544321993292"/>
+          <c:h val="0.658704931432204"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3244,12 +3202,6 @@
                 <c:pt idx="9">
                   <c:v>8.83</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3537,15 +3489,6 @@
                 <c:pt idx="8">
                   <c:v>7.46</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3682,11 +3625,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="40229215"/>
-        <c:axId val="27007490"/>
+        <c:axId val="22104078"/>
+        <c:axId val="99123011"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40229215"/>
+        <c:axId val="22104078"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="27"/>
@@ -3744,13 +3687,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27007490"/>
+        <c:crossAx val="99123011"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="27007490"/>
+        <c:axId val="99123011"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -3817,7 +3760,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40229215"/>
+        <c:crossAx val="22104078"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -3833,16 +3776,18 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.332250851788756"/>
-          <c:y val="0.932528151107882"/>
-          <c:w val="0.428951711654155"/>
-          <c:h val="0.0430478612296794"/>
+          <c:x val="0.332215301070117"/>
+          <c:y val="0.932522023431114"/>
+          <c:w val="0.42892130763497"/>
+          <c:h val="0.042960944595822"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3868,14 +3813,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3915,10 +3860,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976895229982964"/>
-          <c:y val="0.11233200145296"/>
-          <c:w val="0.872604344122657"/>
-          <c:h val="0.659008354522339"/>
+          <c:x val="0.0976947239525103"/>
+          <c:y val="0.112342203251294"/>
+          <c:w val="0.872544321993292"/>
+          <c:h val="0.658977386250113"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4061,12 +4006,6 @@
                 <c:pt idx="9">
                   <c:v>456.28</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4354,15 +4293,6 @@
                 <c:pt idx="8">
                   <c:v>175.54</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4510,11 +4440,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="7267008"/>
-        <c:axId val="74620437"/>
+        <c:axId val="66128056"/>
+        <c:axId val="10853644"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="7267008"/>
+        <c:axId val="66128056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -4572,13 +4502,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74620437"/>
+        <c:crossAx val="10853644"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74620437"/>
+        <c:axId val="10853644"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4643,7 +4573,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7267008"/>
+        <c:crossAx val="66128056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4658,16 +4588,18 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.273690374787053"/>
-          <c:y val="0.915274246276789"/>
-          <c:w val="0.370334877282649"/>
-          <c:h val="0.0458632276814095"/>
+          <c:x val="0.273651706330192"/>
+          <c:y val="0.915266551630188"/>
+          <c:w val="0.370301352358641"/>
+          <c:h val="0.0457765667574932"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4693,14 +4625,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4867,9 +4799,6 @@
                 <c:pt idx="10">
                   <c:v>760.1</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5002,9 +4931,6 @@
                 <c:pt idx="10">
                   <c:v>341.15</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5137,9 +5063,6 @@
                 <c:pt idx="10">
                   <c:v>6.17</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5272,20 +5195,17 @@
                 <c:pt idx="10">
                   <c:v>1.34</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="60590606"/>
-        <c:axId val="94564362"/>
+        <c:axId val="50837462"/>
+        <c:axId val="82785436"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60590606"/>
+        <c:axId val="50837462"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5341,14 +5261,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94564362"/>
+        <c:crossAx val="82785436"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94564362"/>
+        <c:axId val="82785436"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5413,7 +5333,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60590606"/>
+        <c:crossAx val="50837462"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -5453,14 +5373,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5538,6 +5458,7 @@
             <c:numFmt formatCode="0%" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="9"/>
+              <c:numFmt formatCode="0%" sourceLinked="1"/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
@@ -5660,9 +5581,6 @@
                 <c:pt idx="10">
                   <c:v>760.1</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5795,9 +5713,6 @@
                 <c:pt idx="10">
                   <c:v>341.15</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5930,9 +5845,6 @@
                 <c:pt idx="10">
                   <c:v>341.15</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6065,9 +5977,6 @@
                 <c:pt idx="10">
                   <c:v>6.17</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6200,20 +6109,17 @@
                 <c:pt idx="10">
                   <c:v>1.34</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="82979292"/>
-        <c:axId val="80000974"/>
+        <c:axId val="86877150"/>
+        <c:axId val="78209998"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82979292"/>
+        <c:axId val="86877150"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6269,14 +6175,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80000974"/>
+        <c:crossAx val="78209998"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80000974"/>
+        <c:axId val="78209998"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6341,7 +6247,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82979292"/>
+        <c:crossAx val="86877150"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -6381,14 +6287,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6428,10 +6334,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976895229982964"/>
-          <c:y val="0.11233200145296"/>
-          <c:w val="0.872604344122657"/>
-          <c:h val="0.659008354522339"/>
+          <c:x val="0.0976947239525103"/>
+          <c:y val="0.112342203251294"/>
+          <c:w val="0.872544321993292"/>
+          <c:h val="0.658977386250113"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6574,12 +6480,6 @@
                 <c:pt idx="9">
                   <c:v>8.83</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6867,15 +6767,6 @@
                 <c:pt idx="8">
                   <c:v>7.46</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7012,11 +6903,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="71903694"/>
-        <c:axId val="26107194"/>
+        <c:axId val="69099260"/>
+        <c:axId val="91655757"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71903694"/>
+        <c:axId val="69099260"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -7074,13 +6965,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26107194"/>
+        <c:crossAx val="91655757"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="26107194"/>
+        <c:axId val="91655757"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7145,7 +7036,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71903694"/>
+        <c:crossAx val="69099260"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7159,16 +7050,18 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.332250851788756"/>
-          <c:y val="0.932618961133309"/>
-          <c:w val="0.428951711654155"/>
-          <c:h val="0.0430478612296794"/>
+          <c:x val="0.332215301070117"/>
+          <c:y val="0.932612841703751"/>
+          <c:w val="0.42892130763497"/>
+          <c:h val="0.042960944595822"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7194,14 +7087,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7241,10 +7134,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976895229982964"/>
-          <c:y val="0.11233200145296"/>
-          <c:w val="0.872604344122657"/>
-          <c:h val="0.659008354522339"/>
+          <c:x val="0.0976947239525103"/>
+          <c:y val="0.112342203251294"/>
+          <c:w val="0.872544321993292"/>
+          <c:h val="0.658977386250113"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -7390,9 +7283,6 @@
                 <c:pt idx="10">
                   <c:v>9.57</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7683,19 +7573,16 @@
                 <c:pt idx="10">
                   <c:v>8.41</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="3468708"/>
-        <c:axId val="77294527"/>
+        <c:axId val="23902371"/>
+        <c:axId val="5701116"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="3468708"/>
+        <c:axId val="23902371"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -7753,13 +7640,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77294527"/>
+        <c:crossAx val="5701116"/>
         <c:crossesAt val="-8"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77294527"/>
+        <c:axId val="5701116"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-8"/>
@@ -7825,7 +7712,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3468708"/>
+        <c:crossAx val="23902371"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7839,16 +7726,18 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.289821124361158"/>
-          <c:y val="0.90528514347984"/>
-          <c:w val="0.47686738007773"/>
-          <c:h val="0.0430478612296794"/>
+          <c:x val="0.289783314699462"/>
+          <c:y val="0.905276541640178"/>
+          <c:w val="0.4768395272069"/>
+          <c:h val="0.042960944595822"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7874,14 +7763,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7921,10 +7810,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976362862010221"/>
-          <c:y val="0.11233200145296"/>
-          <c:w val="0.872604344122657"/>
-          <c:h val="0.658735924446059"/>
+          <c:x val="0.0975882446893468"/>
+          <c:y val="0.112342203251294"/>
+          <c:w val="0.872544321993292"/>
+          <c:h val="0.658704931432204"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -8067,12 +7956,6 @@
                 <c:pt idx="9">
                   <c:v>8.83</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8360,15 +8243,6 @@
                 <c:pt idx="8">
                   <c:v>7.46</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8505,11 +8379,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="33938320"/>
-        <c:axId val="42176192"/>
+        <c:axId val="84309473"/>
+        <c:axId val="5724844"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="33938320"/>
+        <c:axId val="84309473"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="27"/>
@@ -8567,13 +8441,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42176192"/>
+        <c:crossAx val="5724844"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42176192"/>
+        <c:axId val="5724844"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -8640,7 +8514,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33938320"/>
+        <c:crossAx val="84309473"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -8656,16 +8530,18 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.332250851788756"/>
-          <c:y val="0.932528151107882"/>
-          <c:w val="0.428951711654155"/>
-          <c:h val="0.0430478612296794"/>
+          <c:x val="0.332215301070117"/>
+          <c:y val="0.932522023431114"/>
+          <c:w val="0.42892130763497"/>
+          <c:h val="0.042960944595822"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -8691,14 +8567,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart80.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8738,10 +8614,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976895229982964"/>
-          <c:y val="0.11233200145296"/>
-          <c:w val="0.872604344122657"/>
-          <c:h val="0.659008354522339"/>
+          <c:x val="0.0976947239525103"/>
+          <c:y val="0.112342203251294"/>
+          <c:w val="0.872544321993292"/>
+          <c:h val="0.658977386250113"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -8884,12 +8760,6 @@
                 <c:pt idx="9">
                   <c:v>456.28</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9177,15 +9047,6 @@
                 <c:pt idx="8">
                   <c:v>175.54</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9333,11 +9194,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="71733792"/>
-        <c:axId val="63597366"/>
+        <c:axId val="6709726"/>
+        <c:axId val="6003866"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71733792"/>
+        <c:axId val="6709726"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -9395,13 +9256,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63597366"/>
+        <c:crossAx val="6003866"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63597366"/>
+        <c:axId val="6003866"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9466,7 +9327,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71733792"/>
+        <c:crossAx val="6709726"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9481,16 +9342,18 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.273690374787053"/>
-          <c:y val="0.915274246276789"/>
-          <c:w val="0.370334877282649"/>
-          <c:h val="0.0458632276814095"/>
+          <c:x val="0.273651706330192"/>
+          <c:y val="0.915266551630188"/>
+          <c:w val="0.370301352358641"/>
+          <c:h val="0.0457765667574932"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -9516,14 +9379,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9690,9 +9553,6 @@
                 <c:pt idx="10">
                   <c:v>760.1</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9825,9 +9685,6 @@
                 <c:pt idx="10">
                   <c:v>341.15</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9960,9 +9817,6 @@
                 <c:pt idx="10">
                   <c:v>6.17</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10095,20 +9949,17 @@
                 <c:pt idx="10">
                   <c:v>1.34</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="7845727"/>
-        <c:axId val="8493568"/>
+        <c:axId val="87798573"/>
+        <c:axId val="85855129"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="7845727"/>
+        <c:axId val="87798573"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10164,14 +10015,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8493568"/>
+        <c:crossAx val="85855129"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8493568"/>
+        <c:axId val="85855129"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10236,7 +10087,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7845727"/>
+        <c:crossAx val="87798573"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -10276,14 +10127,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart82.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10361,6 +10212,7 @@
             <c:numFmt formatCode="0%" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="9"/>
+              <c:numFmt formatCode="0%" sourceLinked="1"/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
@@ -10483,9 +10335,6 @@
                 <c:pt idx="10">
                   <c:v>760.1</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10618,9 +10467,6 @@
                 <c:pt idx="10">
                   <c:v>341.15</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10753,9 +10599,6 @@
                 <c:pt idx="10">
                   <c:v>341.15</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10888,9 +10731,6 @@
                 <c:pt idx="10">
                   <c:v>6.17</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11023,20 +10863,17 @@
                 <c:pt idx="10">
                   <c:v>1.34</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="40818161"/>
-        <c:axId val="54016748"/>
+        <c:axId val="75830592"/>
+        <c:axId val="70311805"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40818161"/>
+        <c:axId val="75830592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11092,14 +10929,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54016748"/>
+        <c:crossAx val="70311805"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54016748"/>
+        <c:axId val="70311805"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11164,7 +11001,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40818161"/>
+        <c:crossAx val="75830592"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -11204,14 +11041,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart83.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11251,10 +11088,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976895229982964"/>
-          <c:y val="0.11233200145296"/>
-          <c:w val="0.872604344122657"/>
-          <c:h val="0.659008354522339"/>
+          <c:x val="0.0976947239525103"/>
+          <c:y val="0.112342203251294"/>
+          <c:w val="0.872544321993292"/>
+          <c:h val="0.658977386250113"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -11397,12 +11234,6 @@
                 <c:pt idx="9">
                   <c:v>8.83</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11690,15 +11521,6 @@
                 <c:pt idx="8">
                   <c:v>7.46</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11835,11 +11657,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="62272717"/>
-        <c:axId val="20692990"/>
+        <c:axId val="84705500"/>
+        <c:axId val="13691935"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62272717"/>
+        <c:axId val="84705500"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -11897,13 +11719,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20692990"/>
+        <c:crossAx val="13691935"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="20692990"/>
+        <c:axId val="13691935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11968,7 +11790,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62272717"/>
+        <c:crossAx val="84705500"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11982,16 +11804,18 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.332250851788756"/>
-          <c:y val="0.932618961133309"/>
-          <c:w val="0.428951711654155"/>
-          <c:h val="0.0430478612296794"/>
+          <c:x val="0.332215301070117"/>
+          <c:y val="0.932612841703751"/>
+          <c:w val="0.42892130763497"/>
+          <c:h val="0.042960944595822"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -12017,14 +11841,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart84.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12064,10 +11888,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976895229982964"/>
-          <c:y val="0.11233200145296"/>
-          <c:w val="0.872604344122657"/>
-          <c:h val="0.659008354522339"/>
+          <c:x val="0.0976947239525103"/>
+          <c:y val="0.112342203251294"/>
+          <c:w val="0.872544321993292"/>
+          <c:h val="0.658977386250113"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -12213,9 +12037,6 @@
                 <c:pt idx="10">
                   <c:v>9.57</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -12506,19 +12327,16 @@
                 <c:pt idx="10">
                   <c:v>8.41</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="94971077"/>
-        <c:axId val="44413396"/>
+        <c:axId val="79448581"/>
+        <c:axId val="34292206"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94971077"/>
+        <c:axId val="79448581"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -12576,13 +12394,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44413396"/>
+        <c:crossAx val="34292206"/>
         <c:crossesAt val="-8"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44413396"/>
+        <c:axId val="34292206"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-8"/>
@@ -12648,7 +12466,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94971077"/>
+        <c:crossAx val="79448581"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12662,16 +12480,18 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.289821124361158"/>
-          <c:y val="0.90528514347984"/>
-          <c:w val="0.47686738007773"/>
-          <c:h val="0.0430478612296794"/>
+          <c:x val="0.289783314699462"/>
+          <c:y val="0.905276541640178"/>
+          <c:w val="0.4768395272069"/>
+          <c:h val="0.042960944595822"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -12697,14 +12517,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart85.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12744,10 +12564,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976362862010221"/>
-          <c:y val="0.11233200145296"/>
-          <c:w val="0.872604344122657"/>
-          <c:h val="0.658735924446059"/>
+          <c:x val="0.0975882446893468"/>
+          <c:y val="0.112342203251294"/>
+          <c:w val="0.872544321993292"/>
+          <c:h val="0.658704931432204"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -12890,12 +12710,6 @@
                 <c:pt idx="9">
                   <c:v>8.83</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -13183,15 +12997,6 @@
                 <c:pt idx="8">
                   <c:v>7.46</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -13328,11 +13133,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="15515614"/>
-        <c:axId val="1100234"/>
+        <c:axId val="74042845"/>
+        <c:axId val="17096084"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="15515614"/>
+        <c:axId val="74042845"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="27"/>
@@ -13390,13 +13195,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1100234"/>
+        <c:crossAx val="17096084"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1100234"/>
+        <c:axId val="17096084"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -13463,7 +13268,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15515614"/>
+        <c:crossAx val="74042845"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -13479,16 +13284,18 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.332250851788756"/>
-          <c:y val="0.932528151107882"/>
-          <c:w val="0.428951711654155"/>
-          <c:h val="0.0430478612296794"/>
+          <c:x val="0.332215301070117"/>
+          <c:y val="0.932522023431114"/>
+          <c:w val="0.42892130763497"/>
+          <c:h val="0.042960944595822"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -13514,14 +13321,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart86.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -13561,10 +13368,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976895229982964"/>
-          <c:y val="0.11233200145296"/>
-          <c:w val="0.872604344122657"/>
-          <c:h val="0.659008354522339"/>
+          <c:x val="0.0976947239525103"/>
+          <c:y val="0.112342203251294"/>
+          <c:w val="0.872544321993292"/>
+          <c:h val="0.658977386250113"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -13707,12 +13514,6 @@
                 <c:pt idx="9">
                   <c:v>456.28</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -14000,15 +13801,6 @@
                 <c:pt idx="8">
                   <c:v>175.54</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -14156,11 +13948,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="9024216"/>
-        <c:axId val="93674297"/>
+        <c:axId val="38059245"/>
+        <c:axId val="99972040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="9024216"/>
+        <c:axId val="38059245"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -14218,13 +14010,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93674297"/>
+        <c:crossAx val="99972040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93674297"/>
+        <c:axId val="99972040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14289,7 +14081,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9024216"/>
+        <c:crossAx val="38059245"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14304,16 +14096,18 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.273690374787053"/>
-          <c:y val="0.915274246276789"/>
-          <c:w val="0.370334877282649"/>
-          <c:h val="0.0458632276814095"/>
+          <c:x val="0.273651706330192"/>
+          <c:y val="0.915266551630188"/>
+          <c:w val="0.370301352358641"/>
+          <c:h val="0.0457765667574932"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -14339,14 +14133,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart87.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -14852,11 +14646,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="16177676"/>
-        <c:axId val="89095951"/>
+        <c:axId val="58264165"/>
+        <c:axId val="39156628"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="16177676"/>
+        <c:axId val="58264165"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14912,14 +14706,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89095951"/>
+        <c:crossAx val="39156628"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89095951"/>
+        <c:axId val="39156628"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14984,7 +14778,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16177676"/>
+        <c:crossAx val="58264165"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -15024,14 +14818,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart88.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15537,11 +15331,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="49347938"/>
-        <c:axId val="76604839"/>
+        <c:axId val="53652239"/>
+        <c:axId val="62689242"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49347938"/>
+        <c:axId val="53652239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15597,14 +15391,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76604839"/>
+        <c:crossAx val="62689242"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76604839"/>
+        <c:axId val="62689242"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15669,7 +15463,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49347938"/>
+        <c:crossAx val="53652239"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -15709,14 +15503,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart89.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15756,10 +15550,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976895229982964"/>
-          <c:y val="0.11233200145296"/>
-          <c:w val="0.872604344122657"/>
-          <c:h val="0.659008354522339"/>
+          <c:x val="0.0976947239525103"/>
+          <c:y val="0.112342203251294"/>
+          <c:w val="0.872544321993292"/>
+          <c:h val="0.658977386250113"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -16183,11 +15977,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="87894462"/>
-        <c:axId val="77375920"/>
+        <c:axId val="87451065"/>
+        <c:axId val="54741880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87894462"/>
+        <c:axId val="87451065"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -16245,13 +16039,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77375920"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="54741880"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77375920"/>
+        <c:axId val="54741880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16316,7 +16110,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87894462"/>
+        <c:crossAx val="87451065"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16331,16 +16125,18 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.273704945961774"/>
           <c:y val="0.90445917718645"/>
-          <c:w val="0.495767449289251"/>
-          <c:h val="0.056761420397784"/>
+          <c:w val="0.495740602704717"/>
+          <c:h val="0.0566757493188011"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -16366,7 +16162,2011 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart90.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Proof Time per Component Vs. N Constraints</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cpu opt'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mexp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>02_08_2020!$A$9:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>02_08_2020!$R$9:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cpu opt'!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>02_08_2020!$A$9:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>02_08_2020!$X$9:$X$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>02_08_2020!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Poly Eval</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>02_08_2020!$A$9:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>02_08_2020!$U$9:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cpu opt'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Witness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>02_08_2020!$A$9:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>02_08_2020!$O$9:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cpu opt'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Init</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>02_08_2020!$A$9:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>02_08_2020!$L$9:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="100"/>
+        <c:axId val="27931643"/>
+        <c:axId val="14593503"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="27931643"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Log2 N Constraints</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14593503"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="14593503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27931643"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart91.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Proof Time per Component Vs. N Constraints</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cpu opt'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mexp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>02_08_2020!$A$9:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>02_08_2020!$R$9:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cpu opt'!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>02_08_2020!$A$9:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>02_08_2020!$X$9:$X$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cpu opt'!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Poly Eval</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>02_08_2020!$A$9:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>02_08_2020!$U$9:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cpu opt'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Witness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>02_08_2020!$A$9:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>02_08_2020!$O$9:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cpu opt'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Init</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>02_08_2020!$A$9:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>02_08_2020!$L$9:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="100"/>
+        <c:axId val="53024570"/>
+        <c:axId val="70134516"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="53024570"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Log2 N Constraints</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70134516"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70134516"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Time (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53024570"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart92.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Proof Time Vs N Constraints</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0976947239525103"/>
+          <c:y val="0.112342203251294"/>
+          <c:w val="0.872544321993292"/>
+          <c:h val="0.658977386250113"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cpu opt'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cusnarks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>02_08_2020!$A$9:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>02_08_2020!$B$9:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cpu opt'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DIZK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>02_08_2020!$A$9:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>02_08_2020!$D$9:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>222.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>445.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>891.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1782.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3565.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>02_08_2020!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libsnarks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>02_08_2020!$A$9:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>02_08_2020!$F$9:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>49.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>326.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>674.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="92406225"/>
+        <c:axId val="2620922"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="92406225"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="27"/>
+          <c:min val="22"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Log2 N constraints</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2620922"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2620922"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92406225"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="18360">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.273704945961774"/>
+          <c:y val="0.90445917718645"/>
+          <c:w val="0.495740602704717"/>
+          <c:h val="0.0566757493188011"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -16384,9 +18184,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>417240</xdr:colOff>
+      <xdr:colOff>416880</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16396,7 +18196,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11697840" y="8942400"/>
-          <a:ext cx="1334880" cy="164520"/>
+          <a:ext cx="1334520" cy="164160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16445,9 +18245,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>8280</xdr:colOff>
+      <xdr:colOff>7920</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16457,7 +18257,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2170800" y="10114560"/>
-          <a:ext cx="1334880" cy="164520"/>
+          <a:ext cx="1334520" cy="164160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16511,9 +18311,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>190440</xdr:colOff>
+      <xdr:colOff>190080</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16523,7 +18323,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11471040" y="7792920"/>
-          <a:ext cx="1334880" cy="164520"/>
+          <a:ext cx="1334520" cy="164160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16572,9 +18372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>52200</xdr:colOff>
+      <xdr:colOff>51840</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16584,7 +18384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2214720" y="9106200"/>
-          <a:ext cx="1334880" cy="164520"/>
+          <a:ext cx="1334520" cy="164160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16638,9 +18438,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>273600</xdr:colOff>
+      <xdr:colOff>273240</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16649,7 +18449,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9378360" y="2711160"/>
-        <a:ext cx="6761880" cy="3963960"/>
+        <a:ext cx="6761520" cy="3963600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16662,15 +18462,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>478440</xdr:colOff>
+      <xdr:colOff>479160</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>737640</xdr:colOff>
+      <xdr:colOff>738000</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16678,8 +18478,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10655280" y="7146720"/>
-        <a:ext cx="6761880" cy="3963960"/>
+        <a:off x="10656000" y="7147440"/>
+        <a:ext cx="6761520" cy="3963600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16694,13 +18494,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>738360</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>185040</xdr:colOff>
+      <xdr:colOff>184680</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16708,8 +18508,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9289800" y="11955240"/>
-        <a:ext cx="6761880" cy="3963960"/>
+        <a:off x="9289800" y="11955960"/>
+        <a:ext cx="6761520" cy="3963600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16728,9 +18528,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>190440</xdr:colOff>
+      <xdr:colOff>190080</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16740,7 +18540,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11471040" y="7792920"/>
-          <a:ext cx="1334880" cy="164520"/>
+          <a:ext cx="1334520" cy="164160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16785,13 +18585,13 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>753480</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>452880</xdr:colOff>
+      <xdr:colOff>452520</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16799,8 +18599,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="20684160" y="6892560"/>
-        <a:ext cx="6761880" cy="3963960"/>
+        <a:off x="20684160" y="6893280"/>
+        <a:ext cx="6761520" cy="3963600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16819,9 +18619,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>483120</xdr:colOff>
+      <xdr:colOff>482760</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16830,7 +18630,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1459800" y="7109280"/>
-        <a:ext cx="6761880" cy="3963960"/>
+        <a:ext cx="6761520" cy="3963600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16849,9 +18649,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>52200</xdr:colOff>
+      <xdr:colOff>51840</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16861,7 +18661,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2214720" y="9106200"/>
-          <a:ext cx="1334880" cy="164520"/>
+          <a:ext cx="1334520" cy="164160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16909,15 +18709,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>149760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>792720</xdr:colOff>
+      <xdr:colOff>793080</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:rowOff>47160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16925,8 +18725,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1771560" y="3034440"/>
-        <a:ext cx="6759720" cy="3961800"/>
+        <a:off x="1772280" y="3034440"/>
+        <a:ext cx="6759360" cy="3961440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16945,9 +18745,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>273600</xdr:colOff>
+      <xdr:colOff>273240</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16956,7 +18756,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9378360" y="2711160"/>
-        <a:ext cx="6761880" cy="3963960"/>
+        <a:ext cx="6761520" cy="3963600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16969,15 +18769,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>442440</xdr:colOff>
+      <xdr:colOff>443160</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>701640</xdr:colOff>
+      <xdr:colOff>702000</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16985,8 +18785,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10619280" y="7146720"/>
-        <a:ext cx="6761880" cy="3963960"/>
+        <a:off x="10620000" y="7147440"/>
+        <a:ext cx="6761520" cy="3963600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17001,13 +18801,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>738360</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>185040</xdr:colOff>
+      <xdr:colOff>184680</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -17015,8 +18815,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9289800" y="11955240"/>
-        <a:ext cx="6761880" cy="3963960"/>
+        <a:off x="9289800" y="11955960"/>
+        <a:ext cx="6761520" cy="3963600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17035,9 +18835,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>190440</xdr:colOff>
+      <xdr:colOff>190080</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -17047,7 +18847,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11471040" y="7792920"/>
-          <a:ext cx="1334880" cy="164520"/>
+          <a:ext cx="1334520" cy="164160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17092,13 +18892,13 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>753480</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>452880</xdr:colOff>
+      <xdr:colOff>452520</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -17106,8 +18906,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="20684160" y="6892560"/>
-        <a:ext cx="6761880" cy="3963960"/>
+        <a:off x="20684160" y="6893280"/>
+        <a:ext cx="6761520" cy="3963600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17126,9 +18926,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>483120</xdr:colOff>
+      <xdr:colOff>482760</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -17137,7 +18937,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1459800" y="7109280"/>
-        <a:ext cx="6761880" cy="3963960"/>
+        <a:ext cx="6761520" cy="3963600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17156,9 +18956,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>52200</xdr:colOff>
+      <xdr:colOff>51840</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -17168,7 +18968,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2214720" y="9106200"/>
-          <a:ext cx="1334880" cy="164520"/>
+          <a:ext cx="1334520" cy="164160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17216,15 +19016,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>149760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>792720</xdr:colOff>
+      <xdr:colOff>793080</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:rowOff>47160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -17232,8 +19032,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1771560" y="3034440"/>
-        <a:ext cx="6759720" cy="3961800"/>
+        <a:off x="1772280" y="3034440"/>
+        <a:ext cx="6759360" cy="3961440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17252,9 +19052,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>273600</xdr:colOff>
+      <xdr:colOff>273240</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -17263,7 +19063,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9378360" y="2711160"/>
-        <a:ext cx="6761880" cy="3963960"/>
+        <a:ext cx="6761520" cy="3963600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17278,13 +19078,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>178200</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>437760</xdr:colOff>
+      <xdr:colOff>437400</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -17292,8 +19092,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8729640" y="8578080"/>
-        <a:ext cx="6761880" cy="3963960"/>
+        <a:off x="8729640" y="8578800"/>
+        <a:ext cx="6761520" cy="3963600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17308,13 +19108,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>738360</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>185040</xdr:colOff>
+      <xdr:colOff>184680</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -17322,8 +19122,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9289800" y="11955240"/>
-        <a:ext cx="6761880" cy="3963960"/>
+        <a:off x="9289800" y="11955960"/>
+        <a:ext cx="6761520" cy="3963600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17342,9 +19142,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>190440</xdr:colOff>
+      <xdr:colOff>190080</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -17354,7 +19154,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11471040" y="7792920"/>
-          <a:ext cx="1334880" cy="164520"/>
+          <a:ext cx="1334520" cy="164160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17399,13 +19199,13 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>753480</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>452880</xdr:colOff>
+      <xdr:colOff>452520</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -17413,8 +19213,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="20684160" y="6892560"/>
-        <a:ext cx="6761880" cy="3963960"/>
+        <a:off x="20684160" y="6893280"/>
+        <a:ext cx="6761520" cy="3963600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17433,9 +19233,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>483120</xdr:colOff>
+      <xdr:colOff>482760</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -17444,7 +19244,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1459800" y="7109280"/>
-        <a:ext cx="6761880" cy="3963960"/>
+        <a:ext cx="6761520" cy="3963600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17463,9 +19263,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>52200</xdr:colOff>
+      <xdr:colOff>51840</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -17475,7 +19275,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2214720" y="9106200"/>
-          <a:ext cx="1334880" cy="164520"/>
+          <a:ext cx="1334520" cy="164160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17523,15 +19323,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>149760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>792720</xdr:colOff>
+      <xdr:colOff>793080</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:rowOff>47160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -17539,8 +19339,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1771560" y="3034440"/>
-        <a:ext cx="6759720" cy="3961800"/>
+        <a:off x="1772280" y="3034440"/>
+        <a:ext cx="6759360" cy="3961440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17559,9 +19359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>273600</xdr:colOff>
+      <xdr:colOff>273240</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -17570,7 +19370,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9378360" y="2711160"/>
-        <a:ext cx="6761880" cy="3963960"/>
+        <a:ext cx="6761520" cy="3963600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17589,9 +19389,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
+      <xdr:colOff>36000</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -17601,7 +19401,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9691200" y="9181080"/>
-          <a:ext cx="1334880" cy="164520"/>
+          <a:ext cx="1334520" cy="164160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17650,9 +19450,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>483120</xdr:colOff>
+      <xdr:colOff>482760</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -17661,7 +19461,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1459800" y="7109280"/>
-        <a:ext cx="6761880" cy="3963960"/>
+        <a:ext cx="6761520" cy="3963600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17680,9 +19480,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>52200</xdr:colOff>
+      <xdr:colOff>51840</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -17692,7 +19492,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2214720" y="9106200"/>
-          <a:ext cx="1334880" cy="164520"/>
+          <a:ext cx="1334520" cy="164160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17735,6 +19535,101 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>77760</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>439920</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>11160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="32" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1772280" y="2998440"/>
+        <a:ext cx="6406200" cy="3961440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14040</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>108000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>208800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>7560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="33" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9378360" y="2667600"/>
+        <a:ext cx="6697080" cy="3963600"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>579240</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>2520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582480</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>58680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="34" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1461240" y="7113600"/>
+        <a:ext cx="6859800" cy="3957840"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -17746,14 +19641,11 @@
       <selection pane="topLeft" activeCell="K80" activeCellId="0" sqref="K80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="12" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18491,23 +20383,19 @@
   </sheetPr>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.99"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19219,17 +21107,14 @@
       <selection pane="topRight" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="14.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="6" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="11.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="30" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21158,17 +23043,14 @@
       <selection pane="topRight" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="14.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="27" min="6" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="11.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="33" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22676,17 +24558,14 @@
       <selection pane="topRight" activeCell="AC22" activeCellId="0" sqref="AC22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="14.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="27" min="6" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="11.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="33" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24181,17 +26060,14 @@
       <selection pane="topRight" activeCell="X6" activeCellId="0" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="14.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="27" min="6" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="11.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="33" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25686,17 +27562,14 @@
       <selection pane="topRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="14.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="27" min="6" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="11.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="33" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27183,23 +29056,20 @@
   </sheetPr>
   <dimension ref="A1:AG14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H71" activeCellId="0" sqref="H71"/>
+      <selection pane="topRight" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="14.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="27" min="6" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="11.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="33" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28391,6 +30261,1272 @@
       <c r="AD14" s="0" t="e">
         <f aca="false">N14+Q14+T14+Z14</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AF14" s="0" t="n">
+        <f aca="false">ROUND(LOG(600,2),2)</f>
+        <v>9.23</v>
+      </c>
+      <c r="AG14" s="0" t="n">
+        <f aca="false">ROUND(LOG(300,2),2)</f>
+        <v>8.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AG14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="A9" activeCellId="0" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="11.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="17.21"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AB1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="25" t="n">
+        <v>128</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="27" t="e">
+        <f aca="false">ROUND(LOG(B3,2),2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D3" s="12" t="n">
+        <f aca="false">ROUND(POWER(2,E3),2)</f>
+        <v>13</v>
+      </c>
+      <c r="E3" s="27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G3" s="27" t="n">
+        <f aca="false">ROUND(LOG(F3,2),2)</f>
+        <v>0.89</v>
+      </c>
+      <c r="H3" s="12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I3" s="27" t="n">
+        <f aca="false">ROUND(H3*$J$2/100,2)</f>
+        <v>2.43</v>
+      </c>
+      <c r="J3" s="29"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="27"/>
+      <c r="AB3" s="0" t="n">
+        <f aca="false">B3</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <f aca="false">L3+O3+R3</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <f aca="false">N3+Q3+T3</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <f aca="false">ROUND(LOG(600,2),2)</f>
+        <v>9.23</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <f aca="false">ROUND(LOG(300,2),2)</f>
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="30" t="e">
+        <f aca="false">ROUND(LOG(B4,2),2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" s="16" t="n">
+        <f aca="false">ROUND(POWER(2,E4),2)</f>
+        <v>17.15</v>
+      </c>
+      <c r="E4" s="30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F4" s="14" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G4" s="30" t="n">
+        <f aca="false">ROUND(LOG(F4,2),2)</f>
+        <v>1.36</v>
+      </c>
+      <c r="H4" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="30" t="n">
+        <f aca="false">ROUND(H4*$J$2/100,2)</f>
+        <v>2.56</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="16"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="16"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="16"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="16"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="16"/>
+      <c r="Z4" s="30"/>
+      <c r="AB4" s="0" t="n">
+        <f aca="false">B4</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <f aca="false">L4+O4+R4</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <f aca="false">N4+Q4+T4</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <f aca="false">ROUND(LOG(600,2),2)</f>
+        <v>9.23</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <f aca="false">ROUND(LOG(300,2),2)</f>
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="27" t="e">
+        <f aca="false">ROUND(LOG(B5,2),2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D5" s="12" t="n">
+        <f aca="false">ROUND(POWER(2,E5),2)</f>
+        <v>25.99</v>
+      </c>
+      <c r="E5" s="27" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="G5" s="27" t="n">
+        <f aca="false">ROUND(LOG(F5,2),2)</f>
+        <v>2.1</v>
+      </c>
+      <c r="H5" s="12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I5" s="27" t="n">
+        <f aca="false">ROUND(H5*$J$2/100,2)</f>
+        <v>2.69</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="27"/>
+      <c r="AB5" s="0" t="n">
+        <f aca="false">B5</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <f aca="false">L5+O5+R5</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="0" t="n">
+        <f aca="false">N5+Q5+T5</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <f aca="false">ROUND(LOG(600,2),2)</f>
+        <v>9.23</v>
+      </c>
+      <c r="AG5" s="0" t="n">
+        <f aca="false">ROUND(LOG(300,2),2)</f>
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="30" t="e">
+        <f aca="false">ROUND(LOG(B6,2),2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D6" s="16" t="n">
+        <f aca="false">ROUND(POWER(2,E6),2)</f>
+        <v>42.22</v>
+      </c>
+      <c r="E6" s="30" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F6" s="14" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="G6" s="30" t="n">
+        <f aca="false">ROUND(LOG(F6,2),2)</f>
+        <v>2.9</v>
+      </c>
+      <c r="H6" s="16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I6" s="30" t="n">
+        <f aca="false">ROUND(H6*$J$2/100,2)</f>
+        <v>3.33</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="16"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="16"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="16"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="16"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="16"/>
+      <c r="Z6" s="30"/>
+      <c r="AB6" s="0" t="n">
+        <f aca="false">B6</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <f aca="false">L6+O6+R6</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <f aca="false">N6+Q6+T6</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <f aca="false">ROUND(LOG(600,2),2)</f>
+        <v>9.23</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <f aca="false">ROUND(LOG(300,2),2)</f>
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="27" t="e">
+        <f aca="false">ROUND(LOG(B7,2),2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <f aca="false">ROUND(POWER(2,E7),2)</f>
+        <v>64</v>
+      </c>
+      <c r="E7" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="G7" s="27" t="n">
+        <f aca="false">ROUND(LOG(F7,2),2)</f>
+        <v>3.42</v>
+      </c>
+      <c r="H7" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="27" t="n">
+        <f aca="false">ROUND(H7*$J$2/100,2)</f>
+        <v>3.84</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="27"/>
+      <c r="AB7" s="0" t="n">
+        <f aca="false">B7</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <f aca="false">L7+O7+R7</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <f aca="false">N7+Q7+T7</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <f aca="false">ROUND(LOG(600,2),2)</f>
+        <v>9.23</v>
+      </c>
+      <c r="AG7" s="0" t="n">
+        <f aca="false">ROUND(LOG(300,2),2)</f>
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="30" t="e">
+        <f aca="false">ROUND(LOG(B8,2),2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D8" s="16" t="n">
+        <f aca="false">ROUND(POWER(2,E8),2)</f>
+        <v>84.45</v>
+      </c>
+      <c r="E8" s="30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F8" s="14" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="G8" s="30" t="n">
+        <f aca="false">ROUND(LOG(F8,2),2)</f>
+        <v>4.61</v>
+      </c>
+      <c r="H8" s="16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I8" s="30" t="n">
+        <f aca="false">ROUND(H8*$J$2/100,2)</f>
+        <v>4.99</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="16"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="16"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="16"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="16"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="16"/>
+      <c r="Z8" s="30"/>
+      <c r="AB8" s="0" t="n">
+        <f aca="false">B8</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <f aca="false">L8+O8+R8</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <f aca="false">N8+Q8+T8</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <f aca="false">ROUND(LOG(600,2),2)</f>
+        <v>9.23</v>
+      </c>
+      <c r="AG8" s="0" t="n">
+        <f aca="false">ROUND(LOG(300,2),2)</f>
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B9" s="12" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <f aca="false">ROUND(LOG(B9,2),2)</f>
+        <v>3.28</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <f aca="false">ROUND(POWER(2,E9),2)</f>
+        <v>128</v>
+      </c>
+      <c r="E9" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>49.56</v>
+      </c>
+      <c r="G9" s="27" t="n">
+        <f aca="false">ROUND(LOG(F9,2),2)</f>
+        <v>5.63</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I9" s="27" t="n">
+        <f aca="false">ROUND(H9*$J$2/100,2)</f>
+        <v>8.19</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="12" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="M9" s="29" t="n">
+        <f aca="false">ROUND(LOG(L9,2),2)</f>
+        <v>-8.53</v>
+      </c>
+      <c r="N9" s="27" t="n">
+        <f aca="false">ROUND(100*L9/$B9,2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="O9" s="12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P9" s="29" t="n">
+        <f aca="false">ROUND(LOG(O9,2),2)</f>
+        <v>-2.32</v>
+      </c>
+      <c r="Q9" s="27" t="n">
+        <f aca="false">ROUND(100*O9/$B9,2)</f>
+        <v>2.06</v>
+      </c>
+      <c r="R9" s="12" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="S9" s="29" t="n">
+        <f aca="false">ROUND(LOG(R9,2),2)</f>
+        <v>3.2</v>
+      </c>
+      <c r="T9" s="27" t="n">
+        <f aca="false">ROUND(100*R9/$B9,2)</f>
+        <v>94.85</v>
+      </c>
+      <c r="U9" s="12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="V9" s="29" t="n">
+        <f aca="false">ROUND(LOG(U9,2),2)</f>
+        <v>-1.32</v>
+      </c>
+      <c r="W9" s="27" t="n">
+        <f aca="false">ROUND(100*U9/$B9,2)</f>
+        <v>4.12</v>
+      </c>
+      <c r="X9" s="12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y9" s="29" t="n">
+        <f aca="false">ROUND(LOG(X9,2),2)</f>
+        <v>1.07</v>
+      </c>
+      <c r="Z9" s="27" t="n">
+        <f aca="false">ROUND(100*X9/$B9,2)</f>
+        <v>21.65</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <f aca="false">B9</f>
+        <v>9.7</v>
+      </c>
+      <c r="AC9" s="0" t="n">
+        <f aca="false">L9+O9+R9</f>
+        <v>9.4027</v>
+      </c>
+      <c r="AD9" s="0" t="n">
+        <f aca="false">N9+Q9+T9</f>
+        <v>96.94</v>
+      </c>
+      <c r="AE9" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AF9" s="0" t="n">
+        <f aca="false">ROUND(LOG(600,2),2)</f>
+        <v>9.23</v>
+      </c>
+      <c r="AG9" s="0" t="n">
+        <f aca="false">ROUND(LOG(300,2),2)</f>
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="B10" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" s="30" t="n">
+        <f aca="false">ROUND(LOG(B10,2),2)</f>
+        <v>3.91</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <f aca="false">ROUND(POWER(2,E10),2)</f>
+        <v>222.86</v>
+      </c>
+      <c r="E10" s="30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F10" s="14" t="n">
+        <v>95.51</v>
+      </c>
+      <c r="G10" s="30" t="n">
+        <f aca="false">ROUND(LOG(F10,2),2)</f>
+        <v>6.58</v>
+      </c>
+      <c r="H10" s="16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I10" s="30" t="n">
+        <f aca="false">ROUND(H10*$J$2/100,2)</f>
+        <v>11.01</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="16" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <f aca="false">ROUND(LOG(L10,2),2)</f>
+        <v>-8.7</v>
+      </c>
+      <c r="N10" s="30" t="n">
+        <f aca="false">ROUND(100*L10/$B10,2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="O10" s="16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <f aca="false">ROUND(LOG(O10,2),2)</f>
+        <v>-1.74</v>
+      </c>
+      <c r="Q10" s="30" t="n">
+        <f aca="false">ROUND(100*O10/$B10,2)</f>
+        <v>2</v>
+      </c>
+      <c r="R10" s="16" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <f aca="false">ROUND(LOG(R10,2),2)</f>
+        <v>3.84</v>
+      </c>
+      <c r="T10" s="30" t="n">
+        <f aca="false">ROUND(100*R10/$B10,2)</f>
+        <v>95.33</v>
+      </c>
+      <c r="U10" s="16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <f aca="false">ROUND(LOG(U10,2),2)</f>
+        <v>-0.51</v>
+      </c>
+      <c r="W10" s="30" t="n">
+        <f aca="false">ROUND(100*U10/$B10,2)</f>
+        <v>4.67</v>
+      </c>
+      <c r="X10" s="16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <f aca="false">ROUND(LOG(X10,2),2)</f>
+        <v>2.04</v>
+      </c>
+      <c r="Z10" s="30" t="n">
+        <f aca="false">ROUND(100*X10/$B10,2)</f>
+        <v>27.33</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <f aca="false">B10</f>
+        <v>15</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <f aca="false">L10+O10+R10</f>
+        <v>14.6024</v>
+      </c>
+      <c r="AD10" s="0" t="n">
+        <f aca="false">N10+Q10+T10</f>
+        <v>97.35</v>
+      </c>
+      <c r="AE10" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <f aca="false">ROUND(LOG(600,2),2)</f>
+        <v>9.23</v>
+      </c>
+      <c r="AG10" s="0" t="n">
+        <f aca="false">ROUND(LOG(300,2),2)</f>
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B11" s="12" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C11" s="27" t="n">
+        <f aca="false">ROUND(LOG(B11,2),2)</f>
+        <v>4.88</v>
+      </c>
+      <c r="D11" s="12" t="n">
+        <f aca="false">ROUND(POWER(2,E11),2)</f>
+        <v>445.72</v>
+      </c>
+      <c r="E11" s="27" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>175.54</v>
+      </c>
+      <c r="G11" s="27" t="n">
+        <f aca="false">ROUND(LOG(F11,2),2)</f>
+        <v>7.46</v>
+      </c>
+      <c r="H11" s="12" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="I11" s="27" t="n">
+        <f aca="false">ROUND(H11*$J$2/100,2)</f>
+        <v>17.79</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="12" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="M11" s="29" t="n">
+        <f aca="false">ROUND(LOG(L11,2),2)</f>
+        <v>-8.48</v>
+      </c>
+      <c r="N11" s="27" t="n">
+        <f aca="false">ROUND(100*L11/$B11,2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="O11" s="12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P11" s="29" t="n">
+        <f aca="false">ROUND(LOG(O11,2),2)</f>
+        <v>-0.51</v>
+      </c>
+      <c r="Q11" s="27" t="n">
+        <f aca="false">ROUND(100*O11/$B11,2)</f>
+        <v>2.38</v>
+      </c>
+      <c r="R11" s="12" t="n">
+        <v>28</v>
+      </c>
+      <c r="S11" s="29" t="n">
+        <f aca="false">ROUND(LOG(R11,2),2)</f>
+        <v>4.81</v>
+      </c>
+      <c r="T11" s="27" t="n">
+        <f aca="false">ROUND(100*R11/$B11,2)</f>
+        <v>95.24</v>
+      </c>
+      <c r="U11" s="12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V11" s="29" t="n">
+        <f aca="false">ROUND(LOG(U11,2),2)</f>
+        <v>0.49</v>
+      </c>
+      <c r="W11" s="27" t="n">
+        <f aca="false">ROUND(100*U11/$B11,2)</f>
+        <v>4.76</v>
+      </c>
+      <c r="X11" s="12" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y11" s="29" t="n">
+        <f aca="false">ROUND(LOG(X11,2),2)</f>
+        <v>2.98</v>
+      </c>
+      <c r="Z11" s="27" t="n">
+        <f aca="false">ROUND(100*X11/$B11,2)</f>
+        <v>26.87</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <f aca="false">B11</f>
+        <v>29.4</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <f aca="false">L11+O11+R11</f>
+        <v>28.7028</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <f aca="false">N11+Q11+T11</f>
+        <v>97.63</v>
+      </c>
+      <c r="AE11" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <f aca="false">ROUND(LOG(600,2),2)</f>
+        <v>9.23</v>
+      </c>
+      <c r="AG11" s="0" t="n">
+        <f aca="false">ROUND(LOG(300,2),2)</f>
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="B12" s="16" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="C12" s="30" t="n">
+        <f aca="false">ROUND(LOG(B12,2),2)</f>
+        <v>5.87</v>
+      </c>
+      <c r="D12" s="16" t="n">
+        <f aca="false">ROUND(POWER(2,E12),2)</f>
+        <v>891.44</v>
+      </c>
+      <c r="E12" s="30" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="F12" s="14" t="n">
+        <v>326.74</v>
+      </c>
+      <c r="G12" s="30" t="n">
+        <f aca="false">ROUND(LOG(F12,2),2)</f>
+        <v>8.35</v>
+      </c>
+      <c r="H12" s="16" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="I12" s="30" t="n">
+        <f aca="false">ROUND(H12*$J$2/100,2)</f>
+        <v>38.66</v>
+      </c>
+      <c r="K12" s="13" t="n">
+        <v>152</v>
+      </c>
+      <c r="L12" s="16" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <f aca="false">ROUND(LOG(L12,2),2)</f>
+        <v>-5.97</v>
+      </c>
+      <c r="N12" s="30" t="n">
+        <f aca="false">ROUND(100*L12/$B12,2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="O12" s="16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <f aca="false">ROUND(LOG(O12,2),2)</f>
+        <v>0.49</v>
+      </c>
+      <c r="Q12" s="30" t="n">
+        <f aca="false">ROUND(100*O12/$B12,2)</f>
+        <v>2.4</v>
+      </c>
+      <c r="R12" s="16" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <f aca="false">ROUND(LOG(R12,2),2)</f>
+        <v>5.79</v>
+      </c>
+      <c r="T12" s="30" t="n">
+        <f aca="false">ROUND(100*R12/$B12,2)</f>
+        <v>94.69</v>
+      </c>
+      <c r="U12" s="16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <f aca="false">ROUND(LOG(U12,2),2)</f>
+        <v>1.49</v>
+      </c>
+      <c r="W12" s="30" t="n">
+        <f aca="false">ROUND(100*U12/$B12,2)</f>
+        <v>4.79</v>
+      </c>
+      <c r="X12" s="16" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <f aca="false">ROUND(LOG(X12,2),2)</f>
+        <v>3.84</v>
+      </c>
+      <c r="Z12" s="30" t="n">
+        <f aca="false">ROUND(100*X12/$B12,2)</f>
+        <v>24.49</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <f aca="false">B12</f>
+        <v>58.4</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <f aca="false">L12+O12+R12</f>
+        <v>56.716</v>
+      </c>
+      <c r="AD12" s="0" t="n">
+        <f aca="false">N12+Q12+T12</f>
+        <v>97.12</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <f aca="false">ROUND(LOG(600,2),2)</f>
+        <v>9.23</v>
+      </c>
+      <c r="AG12" s="0" t="n">
+        <f aca="false">ROUND(LOG(300,2),2)</f>
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="B13" s="12" t="n">
+        <v>116</v>
+      </c>
+      <c r="C13" s="27" t="n">
+        <f aca="false">ROUND(LOG(B13,2),2)</f>
+        <v>6.86</v>
+      </c>
+      <c r="D13" s="12" t="n">
+        <f aca="false">ROUND(POWER(2,E13),2)</f>
+        <v>1782.89</v>
+      </c>
+      <c r="E13" s="27" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>674.81</v>
+      </c>
+      <c r="G13" s="27" t="n">
+        <f aca="false">ROUND(LOG(F13,2),2)</f>
+        <v>9.4</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="27" t="n">
+        <f aca="false">ROUND(H13*$J$2/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="29"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="12" t="n">
+        <v>0.0029</v>
+      </c>
+      <c r="M13" s="29" t="n">
+        <f aca="false">ROUND(LOG(L13,2),2)</f>
+        <v>-8.43</v>
+      </c>
+      <c r="N13" s="27" t="n">
+        <f aca="false">ROUND(100*L13/$B13,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="12" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="P13" s="29" t="n">
+        <f aca="false">ROUND(LOG(O13,2),2)</f>
+        <v>1.43</v>
+      </c>
+      <c r="Q13" s="27" t="n">
+        <f aca="false">ROUND(100*O13/$B13,2)</f>
+        <v>2.33</v>
+      </c>
+      <c r="R13" s="12" t="n">
+        <v>111</v>
+      </c>
+      <c r="S13" s="29" t="n">
+        <f aca="false">ROUND(LOG(R13,2),2)</f>
+        <v>6.79</v>
+      </c>
+      <c r="T13" s="27" t="n">
+        <f aca="false">ROUND(100*R13/$B13,2)</f>
+        <v>95.69</v>
+      </c>
+      <c r="U13" s="12" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="V13" s="29" t="n">
+        <f aca="false">ROUND(LOG(U13,2),2)</f>
+        <v>2.63</v>
+      </c>
+      <c r="W13" s="27" t="n">
+        <f aca="false">ROUND(100*U13/$B13,2)</f>
+        <v>5.34</v>
+      </c>
+      <c r="X13" s="12" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="Y13" s="29" t="n">
+        <f aca="false">ROUND(LOG(X13,2),2)</f>
+        <v>4.96</v>
+      </c>
+      <c r="Z13" s="27" t="n">
+        <f aca="false">ROUND(100*X13/$B13,2)</f>
+        <v>26.9</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <f aca="false">B13</f>
+        <v>116</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <f aca="false">L13+O13+R13</f>
+        <v>113.7029</v>
+      </c>
+      <c r="AD13" s="0" t="n">
+        <f aca="false">N13+Q13+T13</f>
+        <v>98.02</v>
+      </c>
+      <c r="AE13" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AF13" s="0" t="n">
+        <f aca="false">ROUND(LOG(600,2),2)</f>
+        <v>9.23</v>
+      </c>
+      <c r="AG13" s="0" t="n">
+        <f aca="false">ROUND(LOG(300,2),2)</f>
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="18" t="n">
+        <v>27</v>
+      </c>
+      <c r="B14" s="20" t="n">
+        <v>338</v>
+      </c>
+      <c r="C14" s="21" t="n">
+        <f aca="false">ROUND(LOG(B14,2),2)</f>
+        <v>8.4</v>
+      </c>
+      <c r="D14" s="20" t="n">
+        <f aca="false">ROUND(POWER(2,E14),2)</f>
+        <v>3565.78</v>
+      </c>
+      <c r="E14" s="21" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
+      <c r="K14" s="18" t="n">
+        <v>993</v>
+      </c>
+      <c r="L14" s="20" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="M14" s="35" t="n">
+        <f aca="false">ROUND(LOG(L14,2),2)</f>
+        <v>-9.2</v>
+      </c>
+      <c r="N14" s="21" t="n">
+        <f aca="false">ROUND(100*L14/$B14,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="20" t="n">
+        <v>9.36</v>
+      </c>
+      <c r="P14" s="35" t="n">
+        <f aca="false">ROUND(LOG(O14,2),2)</f>
+        <v>3.23</v>
+      </c>
+      <c r="Q14" s="30" t="n">
+        <f aca="false">ROUND(100*O14/$B14,2)</f>
+        <v>2.77</v>
+      </c>
+      <c r="R14" s="20" t="n">
+        <v>323</v>
+      </c>
+      <c r="S14" s="35" t="n">
+        <f aca="false">ROUND(LOG(R14,2),2)</f>
+        <v>8.34</v>
+      </c>
+      <c r="T14" s="30" t="n">
+        <f aca="false">ROUND(100*R14/$B14,2)</f>
+        <v>95.56</v>
+      </c>
+      <c r="U14" s="20" t="n">
+        <v>24</v>
+      </c>
+      <c r="V14" s="35" t="n">
+        <f aca="false">ROUND(LOG(U14,2),2)</f>
+        <v>4.58</v>
+      </c>
+      <c r="W14" s="30" t="n">
+        <f aca="false">ROUND(100*U14/$B14,2)</f>
+        <v>7.1</v>
+      </c>
+      <c r="X14" s="20" t="n">
+        <v>98</v>
+      </c>
+      <c r="Y14" s="35" t="n">
+        <f aca="false">ROUND(LOG(X14,2),2)</f>
+        <v>6.61</v>
+      </c>
+      <c r="Z14" s="30" t="n">
+        <f aca="false">ROUND(100*X14/$B14,2)</f>
+        <v>28.99</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <f aca="false">B14</f>
+        <v>338</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <f aca="false">L14+O14+R14+X14</f>
+        <v>430.3617</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <f aca="false">N14+Q14+T14+Z14</f>
+        <v>127.32</v>
       </c>
       <c r="AE14" s="0" t="n">
         <v>600</v>
